--- a/pred_ohlcv/54_21/2019-10-28 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14775.0112</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15549.258</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>19473.85512403628</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>20363.6263</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24936.4549</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>33510.56050000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42836.8147</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>42836.8147</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>44076.8147</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>39719.54790000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>39750.54790000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>38329.49200000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>32938.5173</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>32722.2265</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>34268.6287</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>29734.1016</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>27874.7433</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>29344.9532</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>28787.1425</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>27138.0667</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>26617.50310000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>26617.50310000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>27512.42760000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>28236.06270000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>29341.0403</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>29341.0403</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>29156.0403</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>28148.85420000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>34814.04380000001</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>35294.04380000001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>27964.35482477378</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>26233.97172477378</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>26234.97182477378</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>26039.12902477378</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>26545.98792477378</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>25917.35632477378</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>25917.35632477378</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>25421.85582477378</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>25421.85582477378</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>25400.33252477378</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>25400.33252477378</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>25400.33252477378</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>24492.15492477378</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>24494.15492477378</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>23471.72422477378</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>23349.70522477378</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>23349.70522477378</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>23349.70522477378</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>23808.77522477378</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>23808.77522477378</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>25124.50072477378</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>23496.32002477378</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>23141.32002477378</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>24555.16172477378</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>24719.26172477378</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>25782.26172477378</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>25204.25262477378</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>26236.80352477378</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>26304.90362477378</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>26309.90362477378</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>26249.90362477378</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>26789.08362477378</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>26924.08362477378</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>29286.73022477378</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>30194.59299370582</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>28708.95299370582</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>31412.96959370582</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>30921.95949370582</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>30918.84769370582</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>28685.78589370582</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>28396.18049370582</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>28971.13699370582</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>30454.40339370582</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>30080.75339370582</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>30080.75339370582</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>29981.58939370582</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>33673.11599370582</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>33671.11599370582</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>33672.11599370582</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>82653.08479660736</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>83059.95549660736</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>81565.78979660737</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>83049.47069660737</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>82881.59719660737</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>81105.69889660737</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>80356.54469660737</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>78199.54469660737</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>85224.03319660737</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>84328.83299660737</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>83418.58689660736</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>86284.27289660736</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>85240.01599660737</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>83285.83879660736</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>81906.51539660737</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>76575.56579660738</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>81907.11529660737</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>81820.88279660737</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>80132.66579660737</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>75066.44049660736</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>75075.44049660736</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>74921.33369660737</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>62516.61539660737</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>63593.63959660737</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>67210.18997479315</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>66472.03387479315</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>66472.03387479315</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>70040.87887479315</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14775.0112</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15549.258</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>19473.85512403628</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>19473.85512403628</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>20363.6263</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24936.4549</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>33510.56050000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>42836.8147</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>42836.8147</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>44076.8147</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>39719.54790000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>39750.54790000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>38329.49200000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -860,7 +860,7 @@
         <v>32938.5173</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>32722.2265</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>34268.6287</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>29734.1016</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>27874.7433</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>29344.9532</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>28787.1425</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>27138.0667</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>26617.50310000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>26617.50310000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>27512.42760000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>28236.06270000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>30341.06270000001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>29341.0403</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>29341.0403</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>29156.0403</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>28148.85420000001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>34814.04380000001</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>35294.04380000001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>23141.32002477378</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>23149.68532477378</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>22193.82962477378</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>22157.33732477378</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>22427.34752477378</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>22427.34752477378</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>23663.74452477378</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>24460.76172477378</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>28971.13699370582</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>30454.40339370582</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>30080.75339370582</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>85256.48469660737</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>82653.08479660736</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>83059.95549660736</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>81565.78979660737</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>83049.47069660737</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>82881.59719660737</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>81105.69889660737</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>80356.54469660737</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>78199.54469660737</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>85224.03319660737</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>84328.83299660737</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>83418.58689660736</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>86284.27289660736</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>85240.01599660737</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>83285.83879660736</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>81906.51539660737</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>76575.56579660738</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>80296.11159660737</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>82019.89379660737</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>81820.88279660737</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>80132.66579660737</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>75066.44049660736</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>75075.44049660736</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>74921.33369660737</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>62516.61539660737</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
